--- a/va_facility_data_2025-02-20/Viera VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Viera%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Viera VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Viera%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R530e5cd0162a4fbb944f80fa3506fee7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfa387514273d4042b37808e1aeaa3843"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0864612b44ea4424b83567567fe5722c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R63c673fb600244a29dc61d046f56ad0b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf721d7f623594902bd4f243fa000b0f5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra4a91666500846c9bed33c6f7b75d8a5"/>
   </x:sheets>
 </x:workbook>
 </file>
